--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1865338.211611389</v>
+        <v>-1867288.43743995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12.28544586287387</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>67.15864221613224</v>
+        <v>37.29081714624785</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.11133352146466</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.5822795560951</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>309.87046839376</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>261.9025067912348</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G8" t="n">
-        <v>194.4988525845331</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2381480623299</v>
+        <v>275.1622158054972</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>206.7131661766323</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.25862003346559</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>58.4224711922605</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>110.5794290567494</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>202.1022353531255</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>145.5939410267188</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.25573600692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>183.7435000533814</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>163.352116301783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522963</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
         <v>42.28735533463134</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.415670928748</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2453.533372587256</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.771587225347</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2199.771587225347</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W2" t="n">
-        <v>2131.93457488582</v>
+        <v>2328.418711607734</v>
       </c>
       <c r="X2" t="n">
-        <v>2131.93457488582</v>
+        <v>1954.952953346654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>1954.952953346654</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.2572191628418</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="C4" t="n">
-        <v>323.2572191628418</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628418</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628418</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628418</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X4" t="n">
-        <v>323.2572191628418</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.2572191628418</v>
+        <v>2153.047432775375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.115530175776</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.115530175776</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1093.849831569025</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>708.0615789707808</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.715370239897</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,31 +4662,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1527.841322636248</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.841322636248</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.841322636248</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.053070038004</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F8" t="n">
-        <v>731.0671652483963</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,31 +4899,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>755.3345638685918</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>755.3345638685918</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>755.3345638685918</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3450129705744</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705744</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1439.903673394003</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1239.983663309555</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1016.198248099061</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.198248099061</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>761.5137598931742</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562135</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5498,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.1345339792616</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>654.1345339792616</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>654.1345339792616</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>506.2214403968685</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>359.3314928989581</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
@@ -5704,19 +5704,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227918</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227918</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9271131227918</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y19" t="n">
-        <v>654.1345339792616</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5741,19 +5741,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>990.7828679390639</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C22" t="n">
-        <v>821.846685011157</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D22" t="n">
-        <v>671.7300455988212</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
         <v>208.7516828383384</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X22" t="n">
-        <v>1387.841167119728</v>
+        <v>727.5739949765973</v>
       </c>
       <c r="Y22" t="n">
-        <v>1172.431332769303</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5972,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6032,7 +6032,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113633</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.7814158330672</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330672</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1313.316775554487</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1024.188136768045</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.188136768045</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7709667310845</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X25" t="n">
-        <v>506.7814158330672</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.7814158330672</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6364,7 +6364,7 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
         <v>398.9545963083206</v>
@@ -6427,7 +6427,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,13 +7011,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
         <v>891.4406401619858</v>
@@ -7081,16 +7081,16 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>43.65987261462527</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>176.7176547498453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>234.4116509503169</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1628744947839</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>311.9501515711652</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.35711558186533</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.5041394967477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.65046194477929</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>161.6841967022046</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.52418622194506</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>79.17534261310358</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.5418812115323</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>55.91413940662818</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.13511704545181</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,7 +24178,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>80.11571436231833</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.328917345174773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>37.80406100500787</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>122.8852360967943</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262557</v>
+        <v>58099.54682262559</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>58654.35896065629</v>
+      </c>
+      <c r="F2" t="n">
         <v>58654.35896065628</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>58654.3589606563</v>
       </c>
-      <c r="G2" t="n">
-        <v>58654.35896065633</v>
-      </c>
       <c r="H2" t="n">
-        <v>58654.35896065634</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982128</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982128</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143914</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="I4" t="n">
-        <v>15045.66962143912</v>
-      </c>
       <c r="J4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275957</v>
@@ -26451,7 +26451,7 @@
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745029.5378922785</v>
+        <v>-745145.490756185</v>
       </c>
       <c r="C6" t="n">
         <v>-178055.9035748108</v>
       </c>
       <c r="D6" t="n">
-        <v>-178055.9035748108</v>
+        <v>-178055.9035748109</v>
       </c>
       <c r="E6" t="n">
-        <v>-573538.6730863956</v>
+        <v>-573636.1322123676</v>
       </c>
       <c r="F6" t="n">
-        <v>-48378.63660949944</v>
+        <v>-48476.09573547162</v>
       </c>
       <c r="G6" t="n">
-        <v>-48378.63660949943</v>
+        <v>-48476.09573547159</v>
       </c>
       <c r="H6" t="n">
-        <v>-48378.63660949934</v>
+        <v>-48476.09573547159</v>
       </c>
       <c r="I6" t="n">
-        <v>-48378.63660949944</v>
+        <v>-48476.0957354716</v>
       </c>
       <c r="J6" t="n">
         <v>-304530.1612392692</v>
       </c>
       <c r="K6" t="n">
+        <v>-73601.42994296367</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-73601.42994296373</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-208402.4451768008</v>
+      </c>
+      <c r="N6" t="n">
         <v>-73601.4299429637</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-73601.4299429637</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-208402.4451768009</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-73601.42994296373</v>
       </c>
       <c r="O6" t="n">
         <v>-128106.9420466763</v>
       </c>
       <c r="P6" t="n">
-        <v>-73601.42994296372</v>
+        <v>-73601.4299429637</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,28 +26744,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>282.0823265012808</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>372.8808230741882</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.1515621073855</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>97.00557734795143</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>75.2387842164696</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>24.37936745074296</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G8" t="n">
-        <v>219.2853174362619</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04372617964787651</v>
+        <v>11.11965843648056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>354.0842496650915</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>483.6693559063411</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
